--- a/public/static/excel/supplierPriceStandard.xlsx
+++ b/public/static/excel/supplierPriceStandard.xlsx
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>计费方向</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>计费方式</t>
+  </si>
+  <si>
+    <t>价格名称</t>
   </si>
   <si>
     <t>重泡货比</t>
@@ -227,9 +230,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,7 +291,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,115 +360,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,19 +399,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,163 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,38 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,16 +621,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,11 +684,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,16 +710,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,115 +728,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,27 +1175,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.5454545454545" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="10" width="19.7272727272727" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.0909090909091" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="13" max="26" width="16.0909090909091" style="1" customWidth="1"/>
-    <col min="27" max="27" width="24.3636363636364" style="1" customWidth="1"/>
-    <col min="28" max="29" width="19.3636363636364" style="1" customWidth="1"/>
-    <col min="30" max="30" width="28.7272727272727" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.72727272727273" style="1"/>
+    <col min="3" max="11" width="19.7272727272727" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.0909090909091" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="14" max="27" width="16.0909090909091" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24.3636363636364" style="1" customWidth="1"/>
+    <col min="29" max="30" width="19.3636363636364" style="1" customWidth="1"/>
+    <col min="31" max="31" width="28.7272727272727" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:30">
+    <row r="1" ht="25" customHeight="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,16 +1220,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1280,22 +1283,26 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"按出发地,按目的地"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"门到门,门到港,港到港,港到门"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576 T$1:T$1048576 W$1:W$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576 U$1:U$1048576 X$1:X$1048576">
       <formula1>"按单收费,按体积收费,按重量收费,按件数收费"</formula1>
     </dataValidation>
   </dataValidations>
